--- a/xlsx/中國_intext.xlsx
+++ b/xlsx/中國_intext.xlsx
@@ -29,7 +29,7 @@
     <t>中國 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_政治_中國</t>
+    <t>体育运动_体育运动_明成祖_中國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
@@ -680,10 +680,10 @@
     <t>中原王朝</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%9C%AC%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>中國本土</t>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E5%B7%9E_(%E7%A5%9E%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>九州 (神州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%97%8F</t>
@@ -13560,7 +13560,7 @@
         <v>224</v>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -21158,7 +21158,7 @@
         <v>426</v>
       </c>
       <c r="G378" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
@@ -32004,7 +32004,7 @@
         <v>346</v>
       </c>
       <c r="G752" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H752" t="s">
         <v>4</v>
@@ -49143,7 +49143,7 @@
         <v>2418</v>
       </c>
       <c r="G1343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1343" t="s">
         <v>4</v>
